--- a/79.xlsx
+++ b/79.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,2532 +393,1652 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>200</v>
       </c>
       <c r="C2">
-        <v>3307256133971.146</v>
+        <v>30938519598826.38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
       <c r="C3">
-        <v>30939726224619.79</v>
+        <v>3307171800014.994</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C4">
-        <v>2414892568454.627</v>
+        <v>7180322113518.467</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="C5">
-        <v>3372880000000</v>
+        <v>4041430000000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="C6">
-        <v>3372880000000</v>
+        <v>4041430000000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C7">
-        <v>3372880000000</v>
+        <v>4152961122373.961</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B8">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C8">
-        <v>3372880000000</v>
+        <v>5045982402423.514</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>3372880000000</v>
+        <v>4207631741685.432</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B10">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C10">
-        <v>3372880000000</v>
+        <v>4187493575006.854</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="B11">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C11">
-        <v>7180322113518.467</v>
+        <v>8232464410880.213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B12">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C12">
-        <v>3372880000000</v>
+        <v>5090441381189.511</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C13">
-        <v>2261428418652.2</v>
+        <v>23562001672219.66</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="B14">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="C14">
-        <v>3372880000000</v>
+        <v>6144597846371.324</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B15">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="C15">
-        <v>3372880000000</v>
+        <v>5022342788007.226</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B16">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C16">
-        <v>2103130880674.781</v>
+        <v>10214895177533.64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B17">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C17">
-        <v>3372880000000</v>
+        <v>5516060305230.194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C18">
-        <v>3372880000000</v>
+        <v>5804675829169.821</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B19">
-        <v>275</v>
+        <v>400</v>
       </c>
       <c r="C19">
-        <v>3372880000000</v>
+        <v>4109655824470.232</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B20">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="C20">
-        <v>4041430000000</v>
+        <v>7092181319011.27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="C21">
-        <v>4041430000000</v>
+        <v>23797133852943.81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="B22">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="C22">
-        <v>3372880000000</v>
+        <v>7943073895843.154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B23">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="C23">
-        <v>3372880000000</v>
+        <v>6539138363430.614</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="B24">
-        <v>298</v>
+        <v>500</v>
       </c>
       <c r="C24">
-        <v>4152955547933.244</v>
+        <v>7096260665512.058</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="B25">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C25">
-        <v>8232464410880.213</v>
+        <v>4976300379964.32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="B26">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C26">
-        <v>4187487991685.81</v>
+        <v>7230814889737.065</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B27">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C27">
-        <v>7819019329601.172</v>
+        <v>12075814251249.31</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B28">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C28">
-        <v>4207703272033.046</v>
+        <v>8708960908887.555</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C29">
-        <v>3372880000000</v>
+        <v>26113229292003.06</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B30">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C30">
-        <v>3372880000000</v>
+        <v>7884484149793.253</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C31">
-        <v>1979714265515.133</v>
+        <v>9401017978557.943</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B32">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C32">
-        <v>1871865911204.653</v>
+        <v>13845299623625.91</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="B33">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C33">
-        <v>4025899445636.391</v>
+        <v>8504395983636.923</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B34">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C34">
-        <v>3372880000000</v>
+        <v>8907590698180.266</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C35">
-        <v>7725581857229.11</v>
+        <v>29431978864562.62</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C36">
-        <v>23562614292227.16</v>
+        <v>6067973234110.315</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="B37">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C37">
-        <v>3372880000000</v>
+        <v>10029165161903.08</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B38">
-        <v>325</v>
+        <v>650</v>
       </c>
       <c r="C38">
-        <v>1880958906458.383</v>
+        <v>10601936044802.06</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="B39">
-        <v>350</v>
+        <v>650</v>
       </c>
       <c r="C39">
-        <v>5022337048190.177</v>
+        <v>9094245644083.957</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="B40">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="C40">
-        <v>5643537116933.413</v>
+        <v>15542198484414.39</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B41">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="C41">
-        <v>1800241819665.39</v>
+        <v>7353244104448.396</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="B42">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="C42">
-        <v>9231098852025.697</v>
+        <v>11126574622851.09</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="C43">
-        <v>9136464753838.594</v>
+        <v>10931261310110.26</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>370</v>
+        <v>700</v>
       </c>
       <c r="C44">
-        <v>28007000000000</v>
+        <v>33404241193290.67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="B45">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="C45">
-        <v>28007000000000</v>
+        <v>9657218729218.336</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="B46">
-        <v>375</v>
+        <v>750</v>
       </c>
       <c r="C46">
-        <v>1733094242894.491</v>
+        <v>11609202024409.31</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="B47">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="C47">
-        <v>5804670024496.895</v>
+        <v>10196056285034.95</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B48">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C48">
-        <v>4565700702812.992</v>
+        <v>17179337473960.99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="B49">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C49">
-        <v>10455125199976.08</v>
+        <v>12054990137244.15</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C50">
-        <v>10361280275767.23</v>
+        <v>37881137527869.75</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C51">
-        <v>10214895177533.64</v>
+        <v>13156085171146.62</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>195</v>
+        <v>118</v>
       </c>
       <c r="B52">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C52">
-        <v>28007000000000</v>
+        <v>8819960337087.453</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="B53">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C53">
-        <v>5516130635447.44</v>
+        <v>10713120391139.05</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B54">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="C54">
-        <v>1676397854563.706</v>
+        <v>12468319047281.45</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="B55">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="C55">
-        <v>23797597901578.4</v>
+        <v>11210453199200.59</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="C56">
-        <v>7270557817831.602</v>
+        <v>15574290135628.78</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="B57">
-        <v>425</v>
+        <v>900</v>
       </c>
       <c r="C57">
-        <v>28007000000000</v>
+        <v>18765960720730.5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>425</v>
+        <v>900</v>
       </c>
       <c r="C58">
-        <v>1627913912189.841</v>
+        <v>42786653937992.31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="B59">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="C59">
-        <v>28007000000000</v>
+        <v>10462980391413.64</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B60">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="C60">
-        <v>6539132550865.763</v>
+        <v>12852911805666.46</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B61">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="C61">
-        <v>8853928329279.021</v>
+        <v>11689827596008.15</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B62">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="C62">
-        <v>1585995525126.238</v>
+        <v>12152789720277.39</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B63">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="C63">
-        <v>11426349296537.32</v>
+        <v>13211946696463.61</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B64">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="C64">
-        <v>11518295644852.74</v>
+        <v>12600694282055.33</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B65">
-        <v>464</v>
+        <v>1000</v>
       </c>
       <c r="C65">
-        <v>1564914869842.264</v>
+        <v>20309017830290.52</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="B66">
-        <v>475</v>
+        <v>1000</v>
       </c>
       <c r="C66">
-        <v>28007000000000</v>
+        <v>12280158237750.37</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B67">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C67">
-        <v>7230809105087.468</v>
+        <v>13548149558034.43</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C68">
-        <v>12446160825651.08</v>
+        <v>48076582387138.74</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B69">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C69">
-        <v>7096333047739.994</v>
+        <v>18179934539792.96</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B70">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="C70">
-        <v>10365508637948.09</v>
+        <v>21813905869465.92</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="C71">
-        <v>26113636661557.48</v>
+        <v>53722523818130.23</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="B72">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="C72">
-        <v>7795555369493.157</v>
+        <v>14270772114306.28</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="C73">
-        <v>12075814251249.31</v>
+        <v>20968191464149.11</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="C74">
-        <v>12356707189724.44</v>
+        <v>23284925643241.26</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="B75">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="C75">
-        <v>28007000000000</v>
+        <v>16434827966763.04</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="B76">
-        <v>525</v>
+        <v>1200</v>
       </c>
       <c r="C76">
-        <v>28007000000000</v>
+        <v>59704752101523.34</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B77">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="C77">
-        <v>13260653438744.79</v>
+        <v>23934979753046.37</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="B78">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="C78">
-        <v>28007000000000</v>
+        <v>66008687105198.52</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="B79">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="C79">
-        <v>7884478415625.047</v>
+        <v>24725576997803.89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B80">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="C80">
-        <v>11792311420841.9</v>
+        <v>18772721005998.49</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B81">
-        <v>550</v>
+        <v>1300</v>
       </c>
       <c r="C81">
-        <v>13173981789850.9</v>
+        <v>27076753189654.51</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="B82">
-        <v>575</v>
+        <v>1400</v>
       </c>
       <c r="C82">
-        <v>28007000000000</v>
+        <v>72623004541731.48</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="B83">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="C83">
-        <v>28007000000000</v>
+        <v>26138757981411.55</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="B84">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="C84">
-        <v>13845299623625.91</v>
+        <v>21285059485079.17</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B85">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="C85">
-        <v>13896186842230.66</v>
+        <v>30390369803988.22</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B86">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C86">
-        <v>11136279998951.26</v>
+        <v>79538553875360.5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="B87">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C87">
-        <v>13130236285391.44</v>
+        <v>27526903804197.87</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>182</v>
+        <v>63</v>
       </c>
       <c r="B88">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C88">
-        <v>8504390314041.49</v>
+        <v>33873005393361.76</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B89">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="C89">
-        <v>29432361482774.88</v>
+        <v>23972567959493.84</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="B90">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="C90">
-        <v>8907666413022.988</v>
+        <v>37522093212828.35</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B91">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="C91">
-        <v>13979968374467.56</v>
+        <v>86747703703928.52</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="B92">
-        <v>625</v>
+        <v>1600</v>
       </c>
       <c r="C92">
-        <v>28007000000000</v>
+        <v>26836032000928.12</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93">
-        <v>650</v>
+        <v>1600</v>
       </c>
       <c r="C93">
-        <v>14538121515132.63</v>
+        <v>28892086596575.2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="B94">
-        <v>650</v>
+        <v>1662</v>
       </c>
       <c r="C94">
-        <v>28007000000000</v>
+        <v>60549558491731.98</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>183</v>
+        <v>3</v>
       </c>
       <c r="B95">
-        <v>650</v>
+        <v>1675</v>
       </c>
       <c r="C95">
-        <v>9094240047626.82</v>
+        <v>59071230012963.18</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B96">
-        <v>650</v>
+        <v>1700</v>
       </c>
       <c r="C96">
-        <v>14619012167862.51</v>
+        <v>30236088784137.48</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B97">
-        <v>650</v>
+        <v>1700</v>
       </c>
       <c r="C97">
-        <v>14380221946442.28</v>
+        <v>29876265648871.7</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="B98">
-        <v>675</v>
+        <v>1700</v>
       </c>
       <c r="C98">
-        <v>28007000000000</v>
+        <v>56386067984029.19</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B99">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="C99">
-        <v>33404613414052.05</v>
+        <v>94243926691411.12</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="B100">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="C100">
-        <v>9657213210809.209</v>
+        <v>41335280091031.72</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="B101">
-        <v>700</v>
+        <v>1725</v>
       </c>
       <c r="C101">
-        <v>15189964063351.93</v>
+        <v>53892174552320.05</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="B102">
-        <v>700</v>
+        <v>1750</v>
       </c>
       <c r="C102">
-        <v>28007000000000</v>
+        <v>51572024479955.44</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="B103">
-        <v>700</v>
+        <v>1775</v>
       </c>
       <c r="C103">
-        <v>15542198484414.39</v>
+        <v>49410018530941.23</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="B104">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="C104">
-        <v>14367395832351.97</v>
+        <v>33094091857665.92</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="B105">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="C105">
-        <v>10931340952447.07</v>
+        <v>47392239339002.88</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B106">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="C106">
-        <v>15545932320931.99</v>
+        <v>31560458197708.58</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B107">
-        <v>700</v>
+        <v>1800</v>
       </c>
       <c r="C107">
-        <v>15111902299449.17</v>
+        <v>45310393375182.75</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>208</v>
+        <v>37</v>
       </c>
       <c r="B108">
-        <v>725</v>
+        <v>1800</v>
       </c>
       <c r="C108">
-        <v>28007000000000</v>
+        <v>102021525475112.3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="B109">
-        <v>750</v>
+        <v>1825</v>
       </c>
       <c r="C109">
-        <v>10196050847139.71</v>
+        <v>45506242072490.36</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="B110">
-        <v>750</v>
+        <v>1850</v>
       </c>
       <c r="C110">
-        <v>15627464970179.55</v>
+        <v>43740874418222.91</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="B111">
-        <v>750</v>
+        <v>1875</v>
       </c>
       <c r="C111">
-        <v>28007000000000</v>
+        <v>42086121346077.44</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B112">
-        <v>750</v>
+        <v>1900</v>
       </c>
       <c r="C112">
-        <v>15702795302814.95</v>
+        <v>40532970882100.13</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B113">
-        <v>750</v>
+        <v>1900</v>
       </c>
       <c r="C113">
-        <v>16632382542140.09</v>
+        <v>36490330624694.27</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="B114">
-        <v>773</v>
+        <v>1900</v>
       </c>
       <c r="C114">
-        <v>28007000000000</v>
+        <v>49445415317928.69</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="B115">
-        <v>773</v>
+        <v>1900</v>
       </c>
       <c r="C115">
-        <v>28007000000000</v>
+        <v>110075445115591.7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="B116">
-        <v>773</v>
+        <v>1900</v>
       </c>
       <c r="C116">
-        <v>28007000000000</v>
+        <v>32866550226504.41</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B117">
-        <v>800</v>
+        <v>1925</v>
       </c>
       <c r="C117">
-        <v>13156169041456.92</v>
+        <v>39073297744381.12</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="B118">
-        <v>800</v>
+        <v>1950</v>
       </c>
       <c r="C118">
-        <v>37881506870761.19</v>
+        <v>37699762210072.21</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>800</v>
+        <v>1975</v>
       </c>
       <c r="C119">
-        <v>8039548915508.956</v>
+        <v>36405722005307.34</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B120">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="C120">
-        <v>16092990555049.49</v>
+        <v>118401140672923</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="B121">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="C121">
-        <v>10713115034580.2</v>
+        <v>35185155359565.98</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="B122">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="C122">
-        <v>17179337473960.99</v>
+        <v>53738462761081.67</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B123">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="C123">
-        <v>16165705565284.87</v>
+        <v>34155560581630.14</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="B124">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="C124">
-        <v>17645133400229.98</v>
+        <v>40065791784337.18</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B125">
-        <v>800</v>
+        <v>2025</v>
       </c>
       <c r="C125">
-        <v>17392278995677.05</v>
+        <v>34032593655909.17</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B126">
-        <v>850</v>
+        <v>2050</v>
       </c>
       <c r="C126">
-        <v>16515251354987.53</v>
+        <v>32943062349507.46</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="B127">
-        <v>850</v>
+        <v>2075</v>
       </c>
       <c r="C127">
-        <v>16585475415024.07</v>
+        <v>31912029027815.15</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="B128">
-        <v>850</v>
+        <v>2097</v>
       </c>
       <c r="C128">
-        <v>11210447923694.45</v>
+        <v>31049816081495.06</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="B129">
-        <v>850</v>
+        <v>2100</v>
       </c>
       <c r="C129">
-        <v>18589827950447.65</v>
+        <v>43821270698583.49</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B130">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="C130">
-        <v>16899886721711.15</v>
+        <v>126994481062424.5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B131">
-        <v>900</v>
+        <v>2100</v>
       </c>
       <c r="C131">
-        <v>9201380134019.336</v>
+        <v>58187770703585.27</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>218</v>
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="C132">
-        <v>18765960720730.5</v>
+        <v>47757545776414.31</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="B133">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="C133">
-        <v>15574378390189.6</v>
+        <v>62791678791245.77</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B134">
-        <v>900</v>
+        <v>2200</v>
       </c>
       <c r="C134">
-        <v>19471933643294.91</v>
+        <v>135851677491352.9</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B135">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="C135">
-        <v>20178797279613.64</v>
+        <v>144969228991205.5</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="B136">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="C136">
-        <v>11689822400530.37</v>
+        <v>67548620052730.12</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B137">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="C137">
-        <v>42787024757266.66</v>
+        <v>51875377161546.17</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B138">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="C138">
-        <v>16967746077819.3</v>
+        <v>154343880123677.2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B139">
-        <v>950</v>
+        <v>2400</v>
       </c>
       <c r="C139">
-        <v>17251621235497.31</v>
+        <v>72457111395299.14</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B140">
-        <v>950</v>
+        <v>2500</v>
       </c>
       <c r="C140">
-        <v>17317240133217.44</v>
+        <v>163972587543100.3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B141">
-        <v>950</v>
+        <v>2500</v>
       </c>
       <c r="C141">
-        <v>20296607506369.45</v>
+        <v>77515745501797.19</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="B142">
-        <v>950</v>
+        <v>2600</v>
       </c>
       <c r="C142">
-        <v>12152784603314.37</v>
+        <v>82723183859438.94</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B143">
-        <v>1000</v>
+        <v>2600</v>
       </c>
       <c r="C143">
-        <v>18180027257695.55</v>
+        <v>173852493129077.7</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="B144">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="C144">
-        <v>12600689241778.62</v>
+        <v>183980902080919.3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="B145">
-        <v>1000</v>
+        <v>2700</v>
       </c>
       <c r="C145">
-        <v>20309017830290.52</v>
+        <v>88078150714241.92</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="B146">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="C146">
-        <v>17574437086007.57</v>
+        <v>194355264820936.1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B147">
-        <v>1000</v>
+        <v>2800</v>
       </c>
       <c r="C147">
-        <v>17637935488641.49</v>
+        <v>93579427790901.86</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B148">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="C148">
-        <v>21068634487245.96</v>
+        <v>99225849651871.58</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B149">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="C149">
-        <v>22726172794710.29</v>
+        <v>204973161865684</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B150">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C150">
-        <v>48076957385943.85</v>
+        <v>105016299594921.5</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B151">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C151">
-        <v>10494284964128</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>3</v>
-      </c>
-      <c r="B152">
-        <v>1100</v>
-      </c>
-      <c r="C152">
-        <v>11912843445429.19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>126</v>
-      </c>
-      <c r="B153">
-        <v>1100</v>
-      </c>
-      <c r="C153">
-        <v>53722904761013.37</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>155</v>
-      </c>
-      <c r="B154">
-        <v>1100</v>
-      </c>
-      <c r="C154">
-        <v>20968288680534.9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>220</v>
-      </c>
-      <c r="B155">
-        <v>1100</v>
-      </c>
-      <c r="C155">
-        <v>21813905869465.92</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>59</v>
-      </c>
-      <c r="B156">
-        <v>1100</v>
-      </c>
-      <c r="C156">
-        <v>25047816447094</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>221</v>
-      </c>
-      <c r="B157">
-        <v>1200</v>
-      </c>
-      <c r="C157">
-        <v>23284925643241.26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>60</v>
-      </c>
-      <c r="B158">
-        <v>1200</v>
-      </c>
-      <c r="C158">
-        <v>27162694247267.11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>127</v>
-      </c>
-      <c r="B159">
-        <v>1200</v>
-      </c>
-      <c r="C159">
-        <v>59705140183673.27</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>4</v>
-      </c>
-      <c r="B160">
-        <v>1200</v>
-      </c>
-      <c r="C160">
-        <v>13454037829367.4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>156</v>
-      </c>
-      <c r="B161">
-        <v>1200</v>
-      </c>
-      <c r="C161">
-        <v>23935081476926.48</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>61</v>
-      </c>
-      <c r="B162">
-        <v>1300</v>
-      </c>
-      <c r="C162">
-        <v>29091088806684.76</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>222</v>
-      </c>
-      <c r="B163">
-        <v>1300</v>
-      </c>
-      <c r="C163">
-        <v>24725576997803.89</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>157</v>
-      </c>
-      <c r="B164">
-        <v>1300</v>
-      </c>
-      <c r="C164">
-        <v>27076859414048.46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>128</v>
-      </c>
-      <c r="B165">
-        <v>1300</v>
-      </c>
-      <c r="C165">
-        <v>66009083158509.3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>5</v>
-      </c>
-      <c r="B166">
-        <v>1300</v>
-      </c>
-      <c r="C166">
-        <v>15116177464169.35</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>129</v>
-      </c>
-      <c r="B167">
-        <v>1400</v>
-      </c>
-      <c r="C167">
-        <v>72623409156741.06</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>62</v>
-      </c>
-      <c r="B168">
-        <v>1400</v>
-      </c>
-      <c r="C168">
-        <v>30852602419906.42</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>223</v>
-      </c>
-      <c r="B169">
-        <v>1400</v>
-      </c>
-      <c r="C169">
-        <v>26138757981411.55</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>6</v>
-      </c>
-      <c r="B170">
-        <v>1400</v>
-      </c>
-      <c r="C170">
-        <v>16898346102965.11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>158</v>
-      </c>
-      <c r="B171">
-        <v>1400</v>
-      </c>
-      <c r="C171">
-        <v>30390480511965.57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>63</v>
-      </c>
-      <c r="B172">
-        <v>1500</v>
-      </c>
-      <c r="C172">
-        <v>32465297409964.68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>224</v>
-      </c>
-      <c r="B173">
-        <v>1500</v>
-      </c>
-      <c r="C173">
-        <v>27526903804197.87</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>159</v>
-      </c>
-      <c r="B174">
-        <v>1500</v>
-      </c>
-      <c r="C174">
-        <v>33873120561775.88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>7</v>
-      </c>
-      <c r="B175">
-        <v>1500</v>
-      </c>
-      <c r="C175">
-        <v>18800098915696.34</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>130</v>
-      </c>
-      <c r="B176">
-        <v>1500</v>
-      </c>
-      <c r="C176">
-        <v>79538967476916.02</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>160</v>
-      </c>
-      <c r="B177">
-        <v>1600</v>
-      </c>
-      <c r="C177">
-        <v>37522212814691.08</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>225</v>
-      </c>
-      <c r="B178">
-        <v>1600</v>
-      </c>
-      <c r="C178">
-        <v>28892086596575.2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>131</v>
-      </c>
-      <c r="B179">
-        <v>1600</v>
-      </c>
-      <c r="C179">
-        <v>86748126600014.89</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>64</v>
-      </c>
-      <c r="B180">
-        <v>1600</v>
-      </c>
-      <c r="C180">
-        <v>33945407057517.98</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>8</v>
-      </c>
-      <c r="B181">
-        <v>1600</v>
-      </c>
-      <c r="C181">
-        <v>20821287535605.43</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>161</v>
-      </c>
-      <c r="B182">
-        <v>1700</v>
-      </c>
-      <c r="C182">
-        <v>41335404097058.01</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>65</v>
-      </c>
-      <c r="B183">
-        <v>1700</v>
-      </c>
-      <c r="C183">
-        <v>35307325114661.24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>132</v>
-      </c>
-      <c r="B184">
-        <v>1700</v>
-      </c>
-      <c r="C184">
-        <v>94244359105713.84</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>226</v>
-      </c>
-      <c r="B185">
-        <v>1700</v>
-      </c>
-      <c r="C185">
-        <v>30236088784137.48</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>9</v>
-      </c>
-      <c r="B186">
-        <v>1700</v>
-      </c>
-      <c r="C186">
-        <v>22961954638878.01</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>133</v>
-      </c>
-      <c r="B187">
-        <v>1800</v>
-      </c>
-      <c r="C187">
-        <v>102021967569347.2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>162</v>
-      </c>
-      <c r="B188">
-        <v>1800</v>
-      </c>
-      <c r="C188">
-        <v>45310521754812.52</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>227</v>
-      </c>
-      <c r="B189">
-        <v>1800</v>
-      </c>
-      <c r="C189">
-        <v>31560458197708.58</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>10</v>
-      </c>
-      <c r="B190">
-        <v>1800</v>
-      </c>
-      <c r="C190">
-        <v>25222268137548.39</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>66</v>
-      </c>
-      <c r="B191">
-        <v>1800</v>
-      </c>
-      <c r="C191">
-        <v>36563723226255.86</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>134</v>
-      </c>
-      <c r="B192">
-        <v>1900</v>
-      </c>
-      <c r="C192">
-        <v>110075897005188.6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>163</v>
-      </c>
-      <c r="B193">
-        <v>1900</v>
-      </c>
-      <c r="C193">
-        <v>49445548040011.08</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>228</v>
-      </c>
-      <c r="B194">
-        <v>1900</v>
-      </c>
-      <c r="C194">
-        <v>32866550226504.41</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>11</v>
-      </c>
-      <c r="B195">
-        <v>1900</v>
-      </c>
-      <c r="C195">
-        <v>27602478870410.39</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>67</v>
-      </c>
-      <c r="B196">
-        <v>1900</v>
-      </c>
-      <c r="C196">
-        <v>37725718969731.87</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>12</v>
-      </c>
-      <c r="B197">
-        <v>2000</v>
-      </c>
-      <c r="C197">
-        <v>30102892721310.72</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>68</v>
-      </c>
-      <c r="B198">
-        <v>2000</v>
-      </c>
-      <c r="C198">
-        <v>38803055629266.38</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>229</v>
-      </c>
-      <c r="B199">
-        <v>2000</v>
-      </c>
-      <c r="C199">
-        <v>34155560581630.14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>164</v>
-      </c>
-      <c r="B200">
-        <v>2000</v>
-      </c>
-      <c r="C200">
-        <v>53738599794336.43</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>135</v>
-      </c>
-      <c r="B201">
-        <v>2000</v>
-      </c>
-      <c r="C201">
-        <v>118401602438272.1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>165</v>
-      </c>
-      <c r="B202">
-        <v>2100</v>
-      </c>
-      <c r="C202">
-        <v>58187912016914.29</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>69</v>
-      </c>
-      <c r="B203">
-        <v>2100</v>
-      </c>
-      <c r="C203">
-        <v>39804274988301.32</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>136</v>
-      </c>
-      <c r="B204">
-        <v>2100</v>
-      </c>
-      <c r="C204">
-        <v>126994952757087.3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>13</v>
-      </c>
-      <c r="B205">
-        <v>2100</v>
-      </c>
-      <c r="C205">
-        <v>32723851862225.13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>137</v>
-      </c>
-      <c r="B206">
-        <v>2200</v>
-      </c>
-      <c r="C206">
-        <v>135852159148154.2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>166</v>
-      </c>
-      <c r="B207">
-        <v>2200</v>
-      </c>
-      <c r="C207">
-        <v>62791824353942.59</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>70</v>
-      </c>
-      <c r="B208">
-        <v>2200</v>
-      </c>
-      <c r="C208">
-        <v>40736874979179.73</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>14</v>
-      </c>
-      <c r="B209">
-        <v>2200</v>
-      </c>
-      <c r="C209">
-        <v>35465721917576.25</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>15</v>
-      </c>
-      <c r="B210">
-        <v>2300</v>
-      </c>
-      <c r="C210">
-        <v>38328883057825.02</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>71</v>
-      </c>
-      <c r="B211">
-        <v>2300</v>
-      </c>
-      <c r="C211">
-        <v>41607449473633.51</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>138</v>
-      </c>
-      <c r="B212">
-        <v>2300</v>
-      </c>
-      <c r="C212">
-        <v>144969720626815.8</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>167</v>
-      </c>
-      <c r="B213">
-        <v>2300</v>
-      </c>
-      <c r="C213">
-        <v>67548769834618.91</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>16</v>
-      </c>
-      <c r="B214">
-        <v>2400</v>
-      </c>
-      <c r="C214">
-        <v>41313723751876.1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>72</v>
-      </c>
-      <c r="B215">
-        <v>2400</v>
-      </c>
-      <c r="C215">
-        <v>42421810215550.54</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>139</v>
-      </c>
-      <c r="B216">
-        <v>2400</v>
-      </c>
-      <c r="C216">
-        <v>154344381742102.7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>168</v>
-      </c>
-      <c r="B217">
-        <v>2400</v>
-      </c>
-      <c r="C217">
-        <v>72457265366824.45</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>73</v>
-      </c>
-      <c r="B218">
-        <v>2500</v>
-      </c>
-      <c r="C218">
-        <v>43185092162403.31</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>169</v>
-      </c>
-      <c r="B219">
-        <v>2500</v>
-      </c>
-      <c r="C219">
-        <v>77515903634079.31</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>140</v>
-      </c>
-      <c r="B220">
-        <v>2500</v>
-      </c>
-      <c r="C220">
-        <v>163973099138371.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>17</v>
-      </c>
-      <c r="B221">
-        <v>2500</v>
-      </c>
-      <c r="C221">
-        <v>44420636349571.13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>170</v>
-      </c>
-      <c r="B222">
-        <v>2600</v>
-      </c>
-      <c r="C222">
-        <v>82723346124304.89</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>141</v>
-      </c>
-      <c r="B223">
-        <v>2600</v>
-      </c>
-      <c r="C223">
-        <v>173853014687339.3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>171</v>
-      </c>
-      <c r="B224">
-        <v>2700</v>
-      </c>
-      <c r="C224">
-        <v>88078317084239.28</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>142</v>
-      </c>
-      <c r="B225">
-        <v>2700</v>
-      </c>
-      <c r="C225">
-        <v>183981433582070.8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="1">
-        <v>172</v>
-      </c>
-      <c r="B226">
-        <v>2800</v>
-      </c>
-      <c r="C226">
-        <v>93579598239300.58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="1">
-        <v>143</v>
-      </c>
-      <c r="B227">
-        <v>2800</v>
-      </c>
-      <c r="C227">
-        <v>194355806239927.9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="1">
-        <v>144</v>
-      </c>
-      <c r="B228">
-        <v>2900</v>
-      </c>
-      <c r="C228">
-        <v>204973713173550.4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1">
-        <v>173</v>
-      </c>
-      <c r="B229">
-        <v>2900</v>
-      </c>
-      <c r="C229">
-        <v>99226024152657.17</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1">
-        <v>174</v>
-      </c>
-      <c r="B230">
-        <v>3000</v>
-      </c>
-      <c r="C230">
-        <v>105016478122782.6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="1">
-        <v>145</v>
-      </c>
-      <c r="B231">
-        <v>3000</v>
-      </c>
-      <c r="C231">
-        <v>215832852206650.9</v>
+        <v>215832291041964.7</v>
       </c>
     </row>
   </sheetData>

--- a/79.xlsx
+++ b/79.xlsx
@@ -1,51 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>allTemp</t>
-  </si>
-  <si>
-    <t>koriginal</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -376,1672 +420,1682 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>allTemp</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>koriginal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" t="n">
+        <v>200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30938519598826.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B3" t="n">
+        <v>200</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3307171800014.994</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B4" t="n">
+        <v>250</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7180322113518.467</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B5" t="n">
+        <v>296</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4041430000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>30938519598826.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>3307171800014.994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>95</v>
-      </c>
-      <c r="B4">
-        <v>250</v>
-      </c>
-      <c r="C4">
-        <v>7180322113518.467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
+      <c r="B6" t="n">
         <v>296</v>
       </c>
-      <c r="C5">
+      <c r="C6" t="n">
         <v>4041430000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>296</v>
-      </c>
-      <c r="C6">
-        <v>4041430000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>298</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>4152961122373.961</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>298</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>5045982402423.514</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>300</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4207631741685.432</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>300</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>4187493575006.854</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>300</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>8232464410880.213</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>300</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>5090441381189.511</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>300</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>23562001672219.66</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>350</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>6144597846371.324</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>350</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>5022342788007.226</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>400</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>10214895177533.64</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>400</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>5516060305230.194</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>400</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5804675829169.821</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>400</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>4109655824470.232</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>400</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>7092181319011.27</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>400</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>23797133852943.81</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>450</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>7943073895843.154</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>450</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>6539138363430.614</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>500</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>7096260665512.058</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>500</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>4976300379964.32</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>500</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>7230814889737.065</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>500</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>12075814251249.31</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>500</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>8708960908887.555</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>500</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>26113229292003.06</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>550</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>7884484149793.253</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>550</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>9401017978557.943</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>600</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>13845299623625.91</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>600</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>8504395983636.923</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>600</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>8907590698180.266</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>600</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>29431978864562.62</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>600</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>6067973234110.315</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>600</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>10029165161903.08</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>650</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>10601936044802.06</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>650</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>9094245644083.957</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>700</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>15542198484414.39</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>700</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>7353244104448.396</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>700</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>11126574622851.09</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>700</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>10931261310110.26</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>700</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>33404241193290.67</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>700</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>9657218729218.336</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>750</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>11609202024409.31</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>750</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>10196056285034.95</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>800</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>17179337473960.99</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>800</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>12054990137244.15</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>800</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>37881137527869.75</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>800</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>13156085171146.62</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>800</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>8819960337087.453</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>800</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>10713120391139.05</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>850</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>12468319047281.45</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>850</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>11210453199200.59</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>900</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>15574290135628.78</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>900</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>18765960720730.5</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>900</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>42786653937992.31</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>900</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>10462980391413.64</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>900</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>12852911805666.46</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>900</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>11689827596008.15</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>950</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>12152789720277.39</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>950</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>13211946696463.61</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>1000</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>12600694282055.33</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>1000</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>20309017830290.52</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>1000</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>12280158237750.37</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>1000</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>13548149558034.43</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>1000</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>48076582387138.74</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>1000</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>18179934539792.96</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>1100</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>21813905869465.92</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>1100</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>53722523818130.23</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>1100</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>14270772114306.28</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>1100</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>20968191464149.11</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>1200</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>23284925643241.26</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>1200</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>16434827966763.04</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>1200</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>59704752101523.34</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>1200</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>23934979753046.37</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>1300</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>66008687105198.52</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>1300</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>24725576997803.89</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>1300</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>18772721005998.49</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>1300</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>27076753189654.51</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>1400</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>72623004541731.48</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>1400</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>26138757981411.55</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>1400</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>21285059485079.17</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>1400</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>30390369803988.22</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>1500</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>79538553875360.5</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>1500</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>27526903804197.87</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>1500</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>33873005393361.76</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>1500</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>23972567959493.84</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>1600</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>37522093212828.35</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>1600</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>86747703703928.52</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>1600</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>26836032000928.12</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>1600</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>28892086596575.2</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>1662</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>60549558491731.98</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>1675</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>59071230012963.18</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>1700</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>30236088784137.48</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>1700</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>29876265648871.7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>1700</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>56386067984029.19</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>1700</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>94243926691411.12</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>1700</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>41335280091031.72</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>1725</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>53892174552320.05</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>1750</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>51572024479955.44</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>1775</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>49410018530941.23</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>1800</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>33094091857665.92</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>1800</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>47392239339002.88</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>1800</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>31560458197708.58</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>1800</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>45310393375182.75</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>1800</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>102021525475112.3</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>1825</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>45506242072490.36</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>1850</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>43740874418222.91</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>1875</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>42086121346077.44</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>1900</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>40532970882100.13</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>1900</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>36490330624694.27</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>1900</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>49445415317928.69</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>1900</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>110075445115591.7</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>1900</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>32866550226504.41</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1">
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>1925</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>39073297744381.12</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="1">
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>1950</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>37699762210072.21</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="1">
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>1975</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>36405722005307.34</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="1">
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>2000</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>118401140672923</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="1">
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B121">
+      <c r="B121" t="n">
         <v>2000</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>35185155359565.98</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="1">
+    <row r="122">
+      <c r="A122" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B122">
+      <c r="B122" t="n">
         <v>2000</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>53738462761081.67</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="1">
+    <row r="123">
+      <c r="A123" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B123">
+      <c r="B123" t="n">
         <v>2000</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>34155560581630.14</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="1">
+    <row r="124">
+      <c r="A124" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B124">
+      <c r="B124" t="n">
         <v>2000</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>40065791784337.18</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="1">
+    <row r="125">
+      <c r="A125" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B125">
+      <c r="B125" t="n">
         <v>2025</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>34032593655909.17</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1">
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B126">
+      <c r="B126" t="n">
         <v>2050</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>32943062349507.46</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="1">
+    <row r="127">
+      <c r="A127" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B127">
+      <c r="B127" t="n">
         <v>2075</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>31912029027815.15</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="1">
+    <row r="128">
+      <c r="A128" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B128">
+      <c r="B128" t="n">
         <v>2097</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>31049816081495.06</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
+    <row r="129">
+      <c r="A129" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B129">
+      <c r="B129" t="n">
         <v>2100</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>43821270698583.49</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="1">
+    <row r="130">
+      <c r="A130" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B130">
+      <c r="B130" t="n">
         <v>2100</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>126994481062424.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="1">
+    <row r="131">
+      <c r="A131" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B131">
+      <c r="B131" t="n">
         <v>2100</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>58187770703585.27</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="1">
+    <row r="132">
+      <c r="A132" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B132">
+      <c r="B132" t="n">
         <v>2200</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>47757545776414.31</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1">
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B133">
+      <c r="B133" t="n">
         <v>2200</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>62791678791245.77</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1">
+    <row r="134">
+      <c r="A134" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B134">
+      <c r="B134" t="n">
         <v>2200</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>135851677491352.9</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
+    <row r="135">
+      <c r="A135" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B135">
+      <c r="B135" t="n">
         <v>2300</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>144969228991205.5</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B136">
+      <c r="B136" t="n">
         <v>2300</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>67548620052730.12</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
+    <row r="137">
+      <c r="A137" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B137">
+      <c r="B137" t="n">
         <v>2300</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>51875377161546.17</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="1">
+    <row r="138">
+      <c r="A138" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B138">
+      <c r="B138" t="n">
         <v>2400</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>154343880123677.2</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="1">
+    <row r="139">
+      <c r="A139" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B139">
+      <c r="B139" t="n">
         <v>2400</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>72457111395299.14</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
+    <row r="140">
+      <c r="A140" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B140">
+      <c r="B140" t="n">
         <v>2500</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>163972587543100.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
+    <row r="141">
+      <c r="A141" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B141">
+      <c r="B141" t="n">
         <v>2500</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>77515745501797.19</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1">
+    <row r="142">
+      <c r="A142" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B142">
+      <c r="B142" t="n">
         <v>2600</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>82723183859438.94</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="1">
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B143">
+      <c r="B143" t="n">
         <v>2600</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>173852493129077.7</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="1">
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B144">
+      <c r="B144" t="n">
         <v>2700</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>183980902080919.3</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="1">
+    <row r="145">
+      <c r="A145" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B145">
+      <c r="B145" t="n">
         <v>2700</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>88078150714241.92</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="1">
+    <row r="146">
+      <c r="A146" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B146">
+      <c r="B146" t="n">
         <v>2800</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>194355264820936.1</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1">
+    <row r="147">
+      <c r="A147" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B147">
+      <c r="B147" t="n">
         <v>2800</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>93579427790901.86</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1">
+    <row r="148">
+      <c r="A148" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B148">
+      <c r="B148" t="n">
         <v>2900</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>99225849651871.58</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1">
+    <row r="149">
+      <c r="A149" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B149">
+      <c r="B149" t="n">
         <v>2900</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>204973161865684</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1">
+    <row r="150">
+      <c r="A150" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B150">
+      <c r="B150" t="n">
         <v>3000</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>105016299594921.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="1">
+    <row r="151">
+      <c r="A151" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B151">
+      <c r="B151" t="n">
         <v>3000</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>215832291041964.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>